--- a/docs/RMSE_RPART_git.xlsx
+++ b/docs/RMSE_RPART_git.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3c9903280de0ad7/Doctorado/publicaciones/02.Nosie_filters/Tablas para resultados/Tablas Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{04081197-AFB0-CE42-81AF-574664F5DA79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FF5CD472-C35B-8845-9080-46203D19A3C7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C6E77-6785-C140-B9E9-966E437992C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5700" yWindow="-16120" windowWidth="34500" windowHeight="16120" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
+    <workbookView xWindow="-4900" yWindow="-17640" windowWidth="34500" windowHeight="16120" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
   <sheets>
     <sheet name="%5 of noise" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="36">
   <si>
     <t>Dataset</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>GE</t>
-  </si>
-  <si>
-    <t>HARF</t>
   </si>
   <si>
     <t>IPF</t>
@@ -149,6 +146,15 @@
   </si>
   <si>
     <t>IRF</t>
+  </si>
+  <si>
+    <t>CNDC</t>
+  </si>
+  <si>
+    <t>FMF</t>
+  </si>
+  <si>
+    <t>HRRF</t>
   </si>
 </sst>
 </file>
@@ -536,21 +542,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03CF1A-F7B8-ED4C-8243-C53D47356A15}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -568,7 +576,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -580,18 +588,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1171</v>
@@ -632,10 +646,16 @@
       <c r="N2" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.5599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.25490000000000002</v>
@@ -676,10 +696,16 @@
       <c r="N3" s="4">
         <v>0.25890000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.25309999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>9.9400000000000002E-2</v>
@@ -720,10 +746,16 @@
       <c r="N4" s="4">
         <v>5.5500000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.17799999999999999</v>
@@ -764,10 +796,16 @@
       <c r="N5" s="4">
         <v>0.1706</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.1638</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.1139</v>
@@ -808,10 +846,16 @@
       <c r="N6" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.8399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1323</v>
@@ -852,10 +896,16 @@
       <c r="N7" s="4">
         <v>0.1208</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.1115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>7.5899999999999995E-2</v>
@@ -896,10 +946,16 @@
       <c r="N8" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.4400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>8.6199999999999999E-2</v>
@@ -940,10 +996,16 @@
       <c r="N9" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.1246</v>
@@ -984,10 +1046,16 @@
       <c r="N10" s="4">
         <v>7.3599999999999999E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>6.8900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1173</v>
@@ -1028,10 +1096,16 @@
       <c r="N11" s="4">
         <v>9.7799999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.13220000000000001</v>
@@ -1072,10 +1146,16 @@
       <c r="N12" s="4">
         <v>4.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>4.99E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>4.8099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1186</v>
@@ -1116,10 +1196,16 @@
       <c r="N13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.1394</v>
@@ -1160,10 +1246,16 @@
       <c r="N14" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="P14" s="4">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>9.74E-2</v>
@@ -1204,10 +1296,16 @@
       <c r="N15" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="P15" s="4">
+        <v>4.9399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.189</v>
@@ -1248,10 +1346,16 @@
       <c r="N16" s="4">
         <v>0.18759999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.1045</v>
@@ -1292,10 +1396,16 @@
       <c r="N17" s="4">
         <v>7.9699999999999993E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1123</v>
@@ -1336,10 +1446,16 @@
       <c r="N18" s="4">
         <v>7.2499999999999995E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.1032</v>
@@ -1380,10 +1496,16 @@
       <c r="N19" s="4">
         <v>4.1599999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1012</v>
@@ -1424,10 +1546,16 @@
       <c r="N20" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1046</v>
@@ -1467,6 +1595,12 @@
       </c>
       <c r="N21" s="4">
         <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5.9200000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1476,21 +1610,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1508,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -1520,18 +1656,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.13700000000000001</v>
@@ -1572,10 +1714,16 @@
       <c r="N2" s="4">
         <v>8.8499999999999995E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="P2">
+        <v>8.6699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.26989999999999997</v>
@@ -1616,10 +1764,16 @@
       <c r="N3" s="4">
         <v>0.25600000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.25009999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.17530000000000001</v>
@@ -1660,10 +1814,16 @@
       <c r="N4" s="4">
         <v>6.8400000000000002E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="P4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.19570000000000001</v>
@@ -1704,10 +1864,16 @@
       <c r="N5" s="4">
         <v>0.17649999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.1709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.15340000000000001</v>
@@ -1748,10 +1914,16 @@
       <c r="N6" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="P6">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.1648</v>
@@ -1792,10 +1964,16 @@
       <c r="N7" s="4">
         <v>0.1182</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.1113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>9.8000000000000004E-2</v>
@@ -1836,10 +2014,16 @@
       <c r="N8" s="4">
         <v>4.4699999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="P8">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1111</v>
@@ -1880,10 +2064,16 @@
       <c r="N9" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="P9">
+        <v>5.8299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.16120000000000001</v>
@@ -1924,10 +2114,16 @@
       <c r="N10" s="4">
         <v>7.4899999999999994E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="P10">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.13420000000000001</v>
@@ -1968,10 +2164,16 @@
       <c r="N11" s="4">
         <v>9.9299999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="P11">
+        <v>9.7100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.1898</v>
@@ -2012,10 +2214,16 @@
       <c r="N12" s="4">
         <v>5.2900000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1502</v>
@@ -2056,10 +2264,16 @@
       <c r="N13" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="P13">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.17419999999999999</v>
@@ -2100,10 +2314,16 @@
       <c r="N14" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="P14">
+        <v>8.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.13950000000000001</v>
@@ -2144,10 +2364,16 @@
       <c r="N15" s="4">
         <v>4.9700000000000001E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="P15">
+        <v>4.7600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.21640000000000001</v>
@@ -2188,10 +2414,16 @@
       <c r="N16" s="4">
         <v>0.17960000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.12590000000000001</v>
@@ -2232,10 +2464,16 @@
       <c r="N17" s="4">
         <v>8.0299999999999996E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.85E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.14130000000000001</v>
@@ -2276,10 +2514,16 @@
       <c r="N18" s="4">
         <v>6.9900000000000004E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>0.08</v>
+      </c>
+      <c r="P18">
+        <v>7.0800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.14760000000000001</v>
@@ -2320,10 +2564,16 @@
       <c r="N19" s="4">
         <v>4.07E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="P19">
+        <v>3.8699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1308</v>
@@ -2364,10 +2614,16 @@
       <c r="N20" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="P20">
+        <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.12870000000000001</v>
@@ -2407,6 +2663,12 @@
       </c>
       <c r="N21" s="4">
         <v>5.67E-2</v>
+      </c>
+      <c r="O21">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="P21">
+        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2416,21 +2678,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2448,7 +2712,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -2460,18 +2724,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.15340000000000001</v>
@@ -2512,10 +2782,16 @@
       <c r="N2" s="4">
         <v>8.8300000000000003E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="P2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.28179999999999999</v>
@@ -2556,10 +2832,16 @@
       <c r="N3" s="4">
         <v>0.25540000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>0.2452</v>
+      </c>
+      <c r="P3">
+        <v>0.25180000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.17299999999999999</v>
@@ -2600,10 +2882,16 @@
       <c r="N4" s="4">
         <v>5.2900000000000003E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="P4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.20760000000000001</v>
@@ -2644,10 +2932,16 @@
       <c r="N5" s="4">
         <v>0.1744</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>0.1754</v>
+      </c>
+      <c r="P5">
+        <v>0.1691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.18479999999999999</v>
@@ -2688,10 +2982,16 @@
       <c r="N6" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P6">
+        <v>4.99E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.17949999999999999</v>
@@ -2732,10 +3032,16 @@
       <c r="N7" s="4">
         <v>0.12740000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>0.129</v>
+      </c>
+      <c r="P7">
+        <v>0.1188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.1221</v>
@@ -2776,10 +3082,16 @@
       <c r="N8" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.1265</v>
@@ -2820,10 +3132,16 @@
       <c r="N9" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="P9">
+        <v>5.8700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.18529999999999999</v>
@@ -2864,10 +3182,16 @@
       <c r="N10" s="4">
         <v>7.5800000000000006E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="P10">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1484</v>
@@ -2908,10 +3232,16 @@
       <c r="N11" s="4">
         <v>9.9900000000000003E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>0.1014</v>
+      </c>
+      <c r="P11">
+        <v>9.7600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.22309999999999999</v>
@@ -2952,10 +3282,16 @@
       <c r="N12" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="P12">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1835</v>
@@ -2996,10 +3332,16 @@
       <c r="N13" s="4">
         <v>5.33E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="P13">
+        <v>5.4199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.2034</v>
@@ -3040,10 +3382,16 @@
       <c r="N14" s="4">
         <v>8.8200000000000001E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="P14">
+        <v>8.6499999999999994E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.16650000000000001</v>
@@ -3084,10 +3432,16 @@
       <c r="N15" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="P15">
+        <v>4.7899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.2412</v>
@@ -3128,10 +3482,16 @@
       <c r="N16" s="4">
         <v>0.17910000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="P16">
+        <v>0.16309999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.14749999999999999</v>
@@ -3172,10 +3532,16 @@
       <c r="N17" s="4">
         <v>8.0399999999999999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1676</v>
@@ -3216,10 +3582,16 @@
       <c r="N18" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="P18">
+        <v>7.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.1759</v>
@@ -3260,10 +3632,16 @@
       <c r="N19" s="4">
         <v>4.0399999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="P19">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.15049999999999999</v>
@@ -3304,10 +3682,16 @@
       <c r="N20" s="4">
         <v>5.96E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="P20">
+        <v>6.0600000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.14779999999999999</v>
@@ -3347,6 +3731,12 @@
       </c>
       <c r="N21" s="4">
         <v>6.0299999999999999E-2</v>
+      </c>
+      <c r="O21">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="P21">
+        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3356,21 +3746,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3388,7 +3780,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -3400,18 +3792,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.1681</v>
@@ -3452,10 +3850,16 @@
       <c r="N2" s="4">
         <v>9.0399999999999994E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>9.9485466999999994E-2</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.7248362999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.29389999999999999</v>
@@ -3496,10 +3900,16 @@
       <c r="N3" s="4">
         <v>0.25490000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.25078384399999998</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.24909061099999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.246</v>
@@ -3540,10 +3950,16 @@
       <c r="N4" s="4">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.0797756000000001E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6.2757774000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.21779999999999999</v>
@@ -3584,10 +4000,16 @@
       <c r="N5" s="4">
         <v>0.17710000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.17929922700000001</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.1686745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.20860000000000001</v>
@@ -3628,10 +4050,16 @@
       <c r="N6" s="4">
         <v>4.87E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>9.3617239000000005E-2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4.8638016999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.19450000000000001</v>
@@ -3672,10 +4100,16 @@
       <c r="N7" s="4">
         <v>0.12690000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.13475693399999999</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.113631416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.1386</v>
@@ -3716,10 +4150,16 @@
       <c r="N8" s="4">
         <v>4.5100000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>4.9210232E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.4525241E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.14230000000000001</v>
@@ -3760,10 +4200,16 @@
       <c r="N9" s="4">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>6.5270344999999994E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.8873755E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.20910000000000001</v>
@@ -3804,10 +4250,16 @@
       <c r="N10" s="4">
         <v>7.6700000000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.106271402</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.1856782999999994E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.16170000000000001</v>
@@ -3848,10 +4300,16 @@
       <c r="N11" s="4">
         <v>9.9599999999999994E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.101578231</v>
+      </c>
+      <c r="P11" s="4">
+        <v>9.7298786999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.2712</v>
@@ -3892,10 +4350,16 @@
       <c r="N12" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>7.4261814999999995E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5.9605907999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.1986</v>
@@ -3936,10 +4400,16 @@
       <c r="N13" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>7.6328281999999997E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.4426901E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.22459999999999999</v>
@@ -3980,10 +4450,16 @@
       <c r="N14" s="4">
         <v>8.8099999999999998E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.11957493800000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>8.7009802999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.18129999999999999</v>
@@ -4024,10 +4500,16 @@
       <c r="N15" s="4">
         <v>4.9399999999999999E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>8.5337956000000006E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>4.9218939000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.26079999999999998</v>
@@ -4068,10 +4550,16 @@
       <c r="N16" s="4">
         <v>0.17299999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.17471350599999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.159650706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.16370000000000001</v>
@@ -4112,10 +4600,16 @@
       <c r="N17" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>8.3398587999999996E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>7.9409458000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.17960000000000001</v>
@@ -4156,10 +4650,16 @@
       <c r="N18" s="4">
         <v>8.4500000000000006E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.101041543</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.3131315000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.19539999999999999</v>
@@ -4200,10 +4700,16 @@
       <c r="N19" s="4">
         <v>4.24E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>8.8742566999999994E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>3.8137940000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.15620000000000001</v>
@@ -4244,10 +4750,16 @@
       <c r="N20" s="4">
         <v>6.13E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>7.2450687E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>6.0677018999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.1661</v>
@@ -4287,6 +4799,12 @@
       </c>
       <c r="N21" s="4">
         <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>7.9536687999999994E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5.6351366999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4299,21 +4817,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4331,7 +4851,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -4343,18 +4863,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.18540000000000001</v>
@@ -4395,10 +4921,16 @@
       <c r="N2" s="4">
         <v>9.0399999999999994E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.10480239500000001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.6482087999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.30470000000000003</v>
@@ -4439,10 +4971,16 @@
       <c r="N3" s="4">
         <v>0.25790000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.25763996500000003</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.26018738499999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.25219999999999998</v>
@@ -4483,10 +5021,16 @@
       <c r="N4" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>6.3493108000000006E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>5.8364742999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.2271</v>
@@ -4527,10 +5071,16 @@
       <c r="N5" s="4">
         <v>0.17960000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.18342551500000001</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.17033239999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.22739999999999999</v>
@@ -4571,10 +5121,16 @@
       <c r="N6" s="4">
         <v>4.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.109895437</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.0374745999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.20039999999999999</v>
@@ -4615,10 +5171,16 @@
       <c r="N7" s="4">
         <v>0.1265</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.13207776500000001</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.11587048899999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.152</v>
@@ -4659,10 +5221,16 @@
       <c r="N8" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>5.0263381000000003E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.5136806000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.15770000000000001</v>
@@ -4703,10 +5271,16 @@
       <c r="N9" s="4">
         <v>6.1100000000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>6.6490013000000001E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.9426723000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.2276</v>
@@ -4747,10 +5321,16 @@
       <c r="N10" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.117511255</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.1094090999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.1739</v>
@@ -4791,10 +5371,16 @@
       <c r="N11" s="4">
         <v>0.1021</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.10451150200000001</v>
+      </c>
+      <c r="P11" s="4">
+        <v>9.7443283000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.30409999999999998</v>
@@ -4835,10 +5421,16 @@
       <c r="N12" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>7.5650464000000001E-2</v>
+      </c>
+      <c r="P12" s="4">
+        <v>5.979338E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.222</v>
@@ -4879,10 +5471,16 @@
       <c r="N13" s="4">
         <v>5.3999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>8.7494685000000003E-2</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.4280931999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.2424</v>
@@ -4923,10 +5521,16 @@
       <c r="N14" s="4">
         <v>8.8800000000000004E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.135845352</v>
+      </c>
+      <c r="P14" s="4">
+        <v>8.7037988999999996E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.20080000000000001</v>
@@ -4967,10 +5571,16 @@
       <c r="N15" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>9.9174309000000002E-2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5.0343758000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.27829999999999999</v>
@@ -5011,10 +5621,16 @@
       <c r="N16" s="4">
         <v>0.1764</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.18710600799999999</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.15615659300000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.17660000000000001</v>
@@ -5055,10 +5671,16 @@
       <c r="N17" s="4">
         <v>8.4199999999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>8.6126217000000005E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>8.2593951999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.1883</v>
@@ -5099,10 +5721,16 @@
       <c r="N18" s="4">
         <v>8.6900000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.10304946700000001</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.4095901000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.2031</v>
@@ -5143,10 +5771,16 @@
       <c r="N19" s="4">
         <v>4.3499999999999997E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>9.5230088000000004E-2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>4.3520443999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.18049999999999999</v>
@@ -5187,10 +5821,16 @@
       <c r="N20" s="4">
         <v>5.8400000000000001E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>8.3989162000000006E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.6194134999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.18609999999999999</v>
@@ -5230,6 +5870,12 @@
       </c>
       <c r="N21" s="4">
         <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>9.0422172999999995E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>5.8736952000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5239,21 +5885,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="14" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -5271,7 +5919,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -5283,18 +5931,24 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="4">
         <v>0.19950000000000001</v>
@@ -5335,10 +5989,16 @@
       <c r="N2" s="4">
         <v>8.9099999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="4">
+        <v>0.11143641999999999</v>
+      </c>
+      <c r="P2" s="4">
+        <v>8.7027574999999996E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>0.31059999999999999</v>
@@ -5379,10 +6039,16 @@
       <c r="N3" s="4">
         <v>0.25829999999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="4">
+        <v>0.26415054599999999</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.25718713500000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
         <v>0.27950000000000003</v>
@@ -5423,10 +6089,16 @@
       <c r="N4" s="4">
         <v>6.8199999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="4">
+        <v>7.1874280999999998E-2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6.3851530000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4">
         <v>0.23350000000000001</v>
@@ -5467,10 +6139,16 @@
       <c r="N5" s="4">
         <v>0.17879999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="4">
+        <v>0.18521707100000001</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.16900279100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="4">
         <v>0.2445</v>
@@ -5511,10 +6189,16 @@
       <c r="N6" s="4">
         <v>4.9000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="4">
+        <v>0.126616587</v>
+      </c>
+      <c r="P6" s="4">
+        <v>5.2104057000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4">
         <v>0.2019</v>
@@ -5555,10 +6239,16 @@
       <c r="N7" s="4">
         <v>0.1232</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="4">
+        <v>0.126399185</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0.11530768199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>0.16370000000000001</v>
@@ -5599,10 +6289,16 @@
       <c r="N8" s="4">
         <v>4.58E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="4">
+        <v>5.1366412E-2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4.5231668000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="4">
         <v>0.17</v>
@@ -5643,10 +6339,16 @@
       <c r="N9" s="4">
         <v>6.0900000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="4">
+        <v>6.6855784000000001E-2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.9067335999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4">
         <v>0.24129999999999999</v>
@@ -5687,10 +6389,16 @@
       <c r="N10" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>0.129624395</v>
+      </c>
+      <c r="P10" s="4">
+        <v>7.2597467999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4">
         <v>0.18379999999999999</v>
@@ -5731,10 +6439,16 @@
       <c r="N11" s="4">
         <v>0.1021</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>0.104256241</v>
+      </c>
+      <c r="P11" s="4">
+        <v>9.8707680000000006E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>0.31569999999999998</v>
@@ -5775,10 +6489,16 @@
       <c r="N12" s="4">
         <v>7.7899999999999997E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>0.10010376</v>
+      </c>
+      <c r="P12" s="4">
+        <v>6.8162132E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="4">
         <v>0.2432</v>
@@ -5819,10 +6539,16 @@
       <c r="N13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="4">
+        <v>0.10631575</v>
+      </c>
+      <c r="P13" s="4">
+        <v>5.4662637E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4">
         <v>0.25609999999999999</v>
@@ -5863,10 +6589,16 @@
       <c r="N14" s="4">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>0.15090499800000001</v>
+      </c>
+      <c r="P14" s="4">
+        <v>8.8044225000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>0.2117</v>
@@ -5907,10 +6639,16 @@
       <c r="N15" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>0.108895146</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5.0284389999999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4">
         <v>0.28999999999999998</v>
@@ -5951,10 +6689,16 @@
       <c r="N16" s="4">
         <v>0.17849999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="4">
+        <v>0.19893372600000001</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0.15534260899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4">
         <v>0.19009999999999999</v>
@@ -5995,10 +6739,16 @@
       <c r="N17" s="4">
         <v>8.4199999999999997E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="4">
+        <v>9.0219563000000003E-2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>8.6948288999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4">
         <v>0.19919999999999999</v>
@@ -6039,10 +6789,16 @@
       <c r="N18" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="4">
+        <v>0.112938999</v>
+      </c>
+      <c r="P18" s="4">
+        <v>7.6309369000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4">
         <v>0.21609999999999999</v>
@@ -6083,10 +6839,16 @@
       <c r="N19" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="4">
+        <v>0.109993118</v>
+      </c>
+      <c r="P19" s="4">
+        <v>4.2668214000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>0.1885</v>
@@ -6127,10 +6889,16 @@
       <c r="N20" s="4">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="4">
+        <v>9.0381191999999999E-2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>5.7484597999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="4">
         <v>0.20019999999999999</v>
@@ -6170,6 +6938,12 @@
       </c>
       <c r="N21" s="4">
         <v>6.59E-2</v>
+      </c>
+      <c r="O21" s="4">
+        <v>9.7062323000000006E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <v>6.1407187000000002E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/RMSE_RPART_git.xlsx
+++ b/docs/RMSE_RPART_git.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Desktop/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juanmartin/Documents/Git_repositorios/regressandnoise/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2C6E77-6785-C140-B9E9-966E437992C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF80903-B242-4F49-9D25-F8CCB372224B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4900" yWindow="-17640" windowWidth="34500" windowHeight="16120" xr2:uid="{BEA255D6-58B5-C84B-BACA-711B2A6163F7}"/>
   </bookViews>
@@ -21,12 +21,12 @@
     <sheet name="30% of noise" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'%5 of noise'!$A$1:$O$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10% of noise'!$A$1:$O$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'15% of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20% of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25% of noise'!$A$1:$M$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'%5 of noise'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'10% of noise'!$A$1:$P$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'15% of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'20% of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'25% of noise'!$A$1:$O$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'30% of noise'!$A$1:$O$21</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -544,13 +544,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C03CF1A-F7B8-ED4C-8243-C53D47356A15}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -567,40 +565,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -617,40 +615,40 @@
         <v>8.77E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.10879999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>8.9200000000000002E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.8599999999999998E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>8.9599999999999999E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.5599999999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -667,40 +665,40 @@
         <v>0.2394</v>
       </c>
       <c r="E3" s="4">
+        <v>0.23949999999999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.32629999999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.25929999999999997</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.23949999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.30530000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.25159999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.25130000000000002</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.25119999999999998</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.23980000000000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.25719999999999998</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25890000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.23949999999999999</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.25309999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -717,40 +715,40 @@
         <v>6.5199999999999994E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.1056</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>9.2499999999999999E-2</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.5500000000000001E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5.5800000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -767,40 +765,40 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1638</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.18129999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.17</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.19040000000000001</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.16850000000000001</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.16880000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1691</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1633</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1789</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1706</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.1638</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -817,40 +815,40 @@
         <v>4.7800000000000002E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.1042</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.12670000000000001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.8099999999999997E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>5.1499999999999997E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4.8399999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -867,40 +865,40 @@
         <v>0.1152</v>
       </c>
       <c r="E7" s="4">
+        <v>0.11840000000000001</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.13</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1143</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.12039999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.115</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1197</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1173</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1115</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1157</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1211</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1208</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.1115</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -917,40 +915,40 @@
         <v>4.53E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.4400000000000002E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.4400000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -967,40 +965,40 @@
         <v>5.9799999999999999E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.8700000000000002E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.8299999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -1017,40 +1015,40 @@
         <v>7.0300000000000001E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.1159</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.13070000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.3599999999999999E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="P10" s="4">
-        <v>6.8900000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -1067,40 +1065,40 @@
         <v>9.7799999999999998E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.10589999999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.106</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.69E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="P11" s="4">
-        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1117,40 +1115,40 @@
         <v>5.3499999999999999E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.15260000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.04E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.16170000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>4.9500000000000002E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>0.05</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>8.14E-2</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.04E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>4.99E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>4.8099999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -1167,40 +1165,40 @@
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.11269999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.1072</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.45E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -1217,40 +1215,40 @@
         <v>9.01E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.1237</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.1386</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.09</v>
-      </c>
-      <c r="P14" s="4">
-        <v>8.6499999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -1267,40 +1265,40 @@
         <v>5.11E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.1386</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>4.7100000000000003E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1242</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>4.8300000000000003E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="P15" s="4">
-        <v>4.9399999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -1317,40 +1315,40 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="E16" s="4">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.18210000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.15959999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.15609999999999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.1883</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.17680000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.15809999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.161</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.16009999999999999</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.1958</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.18759999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.161</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -1367,40 +1365,40 @@
         <v>7.8600000000000003E-2</v>
       </c>
       <c r="E17" s="4">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>7.9899999999999999E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>7.8799999999999995E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>7.7100000000000002E-2</v>
+      </c>
+      <c r="N17" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>7.9699999999999993E-2</v>
-      </c>
-      <c r="O17" s="4">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="P17" s="4">
-        <v>7.7100000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -1417,40 +1415,40 @@
         <v>7.1599999999999997E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.14779999999999999</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>7.5499999999999998E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.12939999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.22E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>7.6499999999999999E-2</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.1199999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -1467,40 +1465,40 @@
         <v>3.7100000000000001E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.13120000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.14779999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>3.95E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>4.6800000000000001E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>3.8899999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -1517,40 +1515,40 @@
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="F20" s="4">
         <v>9.01E-2</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>6.08E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>6.0499999999999998E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0.06</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.6899999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -1567,40 +1565,40 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>9.4399999999999998E-2</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5.9200000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1612,13 +1610,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526D5330-79EB-964D-9D40-2E0A1E2E0875}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1635,40 +1631,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -1685,40 +1681,40 @@
         <v>8.9300000000000004E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1118</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1118</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.6599999999999996E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="O2">
-        <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="P2">
-        <v>8.6699999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -1735,40 +1731,40 @@
         <v>0.24179999999999999</v>
       </c>
       <c r="E3" s="4">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.30049999999999999</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.25850000000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.2389</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.30049999999999999</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.25019999999999998</v>
       </c>
       <c r="J3" s="4">
         <v>0.25019999999999998</v>
       </c>
       <c r="K3" s="4">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="L3" s="4">
         <v>0.24840000000000001</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.2417</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.25600000000000001</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25600000000000001</v>
-      </c>
-      <c r="O3">
-        <v>0.24179999999999999</v>
-      </c>
-      <c r="P3">
-        <v>0.25009999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -1785,40 +1781,40 @@
         <v>7.5600000000000001E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.15959999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.1018</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.1847</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.1051</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.8400000000000002E-2</v>
-      </c>
-      <c r="O4">
-        <v>5.4399999999999997E-2</v>
-      </c>
-      <c r="P4">
-        <v>5.8200000000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -1835,40 +1831,40 @@
         <v>0.16889999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.17380000000000001</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.18429999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.17</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1711</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.192</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.17380000000000001</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.1714</v>
       </c>
       <c r="K5" s="4">
         <v>0.1714</v>
       </c>
       <c r="L5" s="4">
+        <v>0.1714</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.1709</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.17430000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.17910000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.17649999999999999</v>
-      </c>
-      <c r="O5">
-        <v>0.17380000000000001</v>
-      </c>
-      <c r="P5">
-        <v>0.1709</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -1885,40 +1881,40 @@
         <v>5.1200000000000002E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.12559999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.14929999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>4.8599999999999997E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>6.25E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="O6">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="P6">
-        <v>4.8300000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -1935,40 +1931,40 @@
         <v>0.1245</v>
       </c>
       <c r="E7" s="4">
+        <v>0.12089999999999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.154</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.1147</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.122</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.154</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1148</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1129</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1169</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1113</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1202</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1236</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1182</v>
-      </c>
-      <c r="O7">
-        <v>0.12089999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.1113</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -1985,40 +1981,40 @@
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>5.0500000000000003E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>4.4499999999999998E-2</v>
       </c>
       <c r="K8" s="4">
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="L8" s="4">
-        <v>4.5699999999999998E-2</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="M8" s="4">
         <v>4.4499999999999998E-2</v>
       </c>
       <c r="N8" s="4">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="P8" s="4">
         <v>4.4699999999999997E-2</v>
-      </c>
-      <c r="O8">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="P8">
-        <v>4.4499999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -2035,40 +2031,40 @@
         <v>6.0699999999999997E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>6.1899999999999997E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.83E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.8299999999999998E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.8799999999999998E-2</v>
-      </c>
-      <c r="O9">
-        <v>6.1899999999999997E-2</v>
-      </c>
-      <c r="P9">
-        <v>5.8299999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -2085,40 +2081,40 @@
         <v>7.4499999999999997E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.13750000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.15490000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.4800000000000005E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>6.9099999999999995E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.2499999999999995E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="O10">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="P10">
-        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -2135,40 +2131,40 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.10489999999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1018</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1069</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.8100000000000007E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.9299999999999999E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="P11">
-        <v>9.7100000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -2185,40 +2181,40 @@
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.18820000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.10979999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.19220000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5.3900000000000003E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.1057</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.16E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="O12">
-        <v>5.1799999999999999E-2</v>
-      </c>
-      <c r="P12">
-        <v>5.1400000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -2235,40 +2231,40 @@
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.12130000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.14929999999999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.45E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="O13">
-        <v>6.0100000000000001E-2</v>
-      </c>
-      <c r="P13">
-        <v>5.45E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -2285,40 +2281,40 @@
         <v>9.2499999999999999E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>9.7199999999999995E-2</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.14549999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.6199999999999999E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.16439999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="O14">
-        <v>9.7199999999999995E-2</v>
-      </c>
-      <c r="P14">
-        <v>8.6199999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -2335,40 +2331,40 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.14269999999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1678</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>4.99E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>4.7699999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="O15">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="P15">
-        <v>4.7600000000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -2385,40 +2381,40 @@
         <v>0.1633</v>
       </c>
       <c r="E16" s="4">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.1981</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.156</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.1595</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.1981</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1656</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.159</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.15670000000000001</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1633</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.192</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.17960000000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="P16">
-        <v>0.16</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -2435,40 +2431,40 @@
         <v>8.2100000000000006E-2</v>
       </c>
       <c r="E17" s="4">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>7.7799999999999994E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>7.85E-2</v>
+      </c>
+      <c r="N17" s="4">
         <v>8.48E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>7.8899999999999998E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>8.0299999999999996E-2</v>
-      </c>
-      <c r="O17">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="P17">
-        <v>7.85E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -2485,40 +2481,40 @@
         <v>7.1300000000000002E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1384</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>6.8599999999999994E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.1469</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.0900000000000005E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>6.9900000000000004E-2</v>
-      </c>
-      <c r="O18">
-        <v>0.08</v>
-      </c>
-      <c r="P18">
-        <v>7.0800000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -2535,40 +2531,40 @@
         <v>4.8899999999999999E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.1429</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.19869999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.07E-2</v>
-      </c>
-      <c r="O19">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="P19">
-        <v>3.8699999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -2585,40 +2581,40 @@
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1055</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>6.6299999999999998E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.12989999999999999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>5.5899999999999998E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.7299999999999997E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.7099999999999998E-2</v>
-      </c>
-      <c r="O20">
-        <v>6.3799999999999996E-2</v>
-      </c>
-      <c r="P20">
-        <v>5.7299999999999997E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -2635,40 +2631,40 @@
         <v>6.2300000000000001E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.1012</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.1222</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>5.67E-2</v>
-      </c>
-      <c r="O21">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="P21">
-        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2680,13 +2676,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C434980F-B2D5-1244-B2E2-D16E1351ABF2}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -2703,40 +2697,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2753,40 +2747,40 @@
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>9.6100000000000005E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1207</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1207</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.8300000000000003E-2</v>
-      </c>
-      <c r="O2">
-        <v>9.6100000000000005E-2</v>
-      </c>
-      <c r="P2">
-        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -2803,40 +2797,40 @@
         <v>0.2452</v>
       </c>
       <c r="E3" s="4">
+        <v>0.2452</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.37619999999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26939999999999997</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.37619999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.24959999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.2495</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.2462</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.2455</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.25409999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25540000000000002</v>
-      </c>
-      <c r="O3">
-        <v>0.2452</v>
-      </c>
-      <c r="P3">
-        <v>0.25180000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -2853,40 +2847,40 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.15210000000000001</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.1028</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.16719999999999999</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.2900000000000003E-2</v>
-      </c>
-      <c r="O4">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="P4">
-        <v>5.3699999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -2903,40 +2897,40 @@
         <v>0.16930000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.1754</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.19120000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.16800000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.17460000000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.20069999999999999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.17419999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.17030000000000001</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1711</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.1691</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.17430000000000001</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1764</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.1744</v>
-      </c>
-      <c r="O5">
-        <v>0.1754</v>
-      </c>
-      <c r="P5">
-        <v>0.1691</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -2953,40 +2947,40 @@
         <v>5.45E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.14649999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.1704</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.04E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.99E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>8.0500000000000002E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="O6">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="P6">
-        <v>4.99E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -3003,40 +2997,40 @@
         <v>0.12740000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.129</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.1588</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.12089999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.1341</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.1588</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1208</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1149</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1187</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.1188</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1338</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1198</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.12740000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.129</v>
-      </c>
-      <c r="P7">
-        <v>0.1188</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -3053,40 +3047,40 @@
         <v>4.5699999999999998E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>5.3199999999999997E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.82E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.7899999999999998E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="O8">
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P8">
-        <v>4.5100000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -3103,40 +3097,40 @@
         <v>6.0699999999999997E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>6.9400000000000003E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.8700000000000002E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="O9">
-        <v>6.3299999999999995E-2</v>
-      </c>
-      <c r="P9">
-        <v>5.8700000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -3153,40 +3147,40 @@
         <v>7.7700000000000005E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.15310000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>9.5299999999999996E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.16889999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.51E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>6.93E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.0199999999999999E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.3800000000000004E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.5800000000000006E-2</v>
-      </c>
-      <c r="O10">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="P10">
-        <v>7.0199999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -3203,40 +3197,40 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.1014</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.1094</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1018</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.10970000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.1024</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="O11">
-        <v>0.1014</v>
-      </c>
-      <c r="P11">
-        <v>9.7600000000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -3253,40 +3247,40 @@
         <v>9.0200000000000002E-2</v>
       </c>
       <c r="E12" s="4">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.1928</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.1928</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.7100000000000007E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.28E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>5.8900000000000001E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.12709999999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.1700000000000003E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="O12">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="P12">
-        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -3303,40 +3297,40 @@
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1462</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.08</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.1709</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.33E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.33E-2</v>
-      </c>
-      <c r="O13">
-        <v>6.7400000000000002E-2</v>
-      </c>
-      <c r="P13">
-        <v>5.4199999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -3353,40 +3347,40 @@
         <v>9.4799999999999995E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>0.10730000000000001</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.16489999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.1115</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.18679999999999999</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.5500000000000007E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.10970000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="O14">
-        <v>0.10730000000000001</v>
-      </c>
-      <c r="P14">
-        <v>8.6499999999999994E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -3403,40 +3397,40 @@
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.15870000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>7.51E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.19750000000000001</v>
-      </c>
-      <c r="I15" s="4">
-        <v>4.9799999999999997E-2</v>
       </c>
       <c r="J15" s="4">
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="K15" s="4">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="L15" s="4">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="O15">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="P15">
-        <v>4.7899999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -3453,40 +3447,40 @@
         <v>0.1681</v>
       </c>
       <c r="E16" s="4">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.215</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.15590000000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.17</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.215</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.16639999999999999</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.15920000000000001</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.1588</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.16309999999999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1736</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.18210000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.17910000000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.16869999999999999</v>
-      </c>
-      <c r="P16">
-        <v>0.16309999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -3503,40 +3497,40 @@
         <v>8.9200000000000002E-2</v>
       </c>
       <c r="E17" s="4">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>8.09E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>7.8299999999999995E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="N17" s="4">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="O17">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="P17">
-        <v>7.9399999999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -3553,40 +3547,40 @@
         <v>8.2100000000000006E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>9.5699999999999993E-2</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.1452</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>9.5899999999999999E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.16700000000000001</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>8.5800000000000001E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1072</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="O18">
-        <v>9.5699999999999993E-2</v>
-      </c>
-      <c r="P18">
-        <v>7.9899999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -3603,40 +3597,40 @@
         <v>6.2199999999999998E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.1648</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.19089999999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.0099999999999997E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="O19">
-        <v>8.3099999999999993E-2</v>
-      </c>
-      <c r="P19">
-        <v>3.9199999999999999E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -3653,40 +3647,40 @@
         <v>6.5199999999999994E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1236</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5.7700000000000001E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1336</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>0.06</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.96E-2</v>
-      </c>
-      <c r="O20">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="P20">
-        <v>6.0600000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -3703,40 +3697,40 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.1067</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.12720000000000001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>6.13E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.96E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>6.0299999999999999E-2</v>
-      </c>
-      <c r="O21">
-        <v>7.3200000000000001E-2</v>
-      </c>
-      <c r="P21">
-        <v>5.8500000000000003E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3748,13 +3742,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B616062-F71C-1C4D-AE5F-CB3C29501456}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -3771,40 +3763,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -3821,40 +3813,40 @@
         <v>9.11E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>9.9485466999999994E-2</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.12590000000000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.1003</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.12590000000000001</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.09</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.7248362999999995E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.10050000000000001</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>9.9485466999999994E-2</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.7248362999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -3871,40 +3863,40 @@
         <v>0.25090000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.25078384399999998</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.31119999999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26069999999999999</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.24709999999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.31119999999999998</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.24809999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.251</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.2429</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.24909061099999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.2505</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.2525</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25490000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.25078384399999998</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.24909061099999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -3921,40 +3913,40 @@
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="E4" s="4">
+        <v>6.0797756000000001E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.2215</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.2402</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.2399999999999997E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>6.1400000000000003E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>6.2757774000000002E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.14849999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>0.1018</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.2E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.0797756000000001E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>6.2757774000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -3971,40 +3963,40 @@
         <v>0.17319999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.17929922700000001</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.1983</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.16789999999999999</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.17879999999999999</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.2036</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.17699999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.17119999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.17180000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.1686745</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.17929999999999999</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.17660000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.17710000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.17929922700000001</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.1686745</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -4021,40 +4013,40 @@
         <v>6.2100000000000002E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>9.3617239000000005E-2</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.16439999999999999</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.1852</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>4.8638016999999999E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.87E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>9.3617239000000005E-2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>4.8638016999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -4071,40 +4063,40 @@
         <v>0.13350000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.13475693399999999</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.15679999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.11840000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.13619999999999999</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.15679999999999999</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.12139999999999999</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1181</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.12</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.113631416</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.12540000000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.12690000000000001</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.13475693399999999</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.113631416</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -4121,40 +4113,40 @@
         <v>4.65E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>4.9210232E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.4525241E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>4.9210232E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.4525241E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -4171,40 +4163,40 @@
         <v>6.1899999999999997E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>6.5270344999999994E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.8873755E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>6.5199999999999994E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>0.06</v>
-      </c>
-      <c r="O9" s="4">
-        <v>6.5270344999999994E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.8873755E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -4221,40 +4213,40 @@
         <v>8.2100000000000006E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>0.106271402</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.16900000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>7.2800000000000004E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.1116</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.18479999999999999</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.1856782999999994E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.1108</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.6700000000000004E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.106271402</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.1856782999999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -4271,40 +4263,40 @@
         <v>9.8400000000000001E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.101578231</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.10970000000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1032</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.11020000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>9.9699999999999997E-2</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>9.8699999999999996E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.7298786999999998E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.1031</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>9.8900000000000002E-2</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>9.9599999999999994E-2</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.101578231</v>
-      </c>
-      <c r="P11" s="4">
-        <v>9.7298786999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -4321,40 +4313,40 @@
         <v>0.1178</v>
       </c>
       <c r="E12" s="4">
+        <v>7.4261814999999995E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.2404</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.2404</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>6.5100000000000005E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>5.96E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>7.0199999999999999E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>5.9605907999999999E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.16350000000000001</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>7.4261814999999995E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5.9605907999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -4371,40 +4363,40 @@
         <v>6.08E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>7.6328281999999997E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1583</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>9.1499999999999998E-2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.18240000000000001</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5800000000000002E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.7299999999999997E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.4426901E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>9.2799999999999994E-2</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>7.6328281999999997E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.4426901E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -4421,40 +4413,40 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="E14" s="4">
+        <v>0.11957493800000001</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.17979999999999999</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.1236</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.20080000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>8.7009802999999997E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.1237</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.8099999999999998E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.11957493800000001</v>
-      </c>
-      <c r="P14" s="4">
-        <v>8.7009802999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -4471,40 +4463,40 @@
         <v>7.9100000000000004E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>8.5337956000000006E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.15140000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>8.8099999999999998E-2</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.19350000000000001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>5.4699999999999999E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>4.9218939000000003E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>9.1300000000000006E-2</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>4.9399999999999999E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>8.5337956000000006E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>4.9218939000000003E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -4521,40 +4513,40 @@
         <v>0.16739999999999999</v>
       </c>
       <c r="E16" s="4">
+        <v>0.17471350599999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.23080000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.14899999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.1802</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.23080000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.16420000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1583</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.16</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.159650706</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.18240000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.18390000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.17299999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.17471350599999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.159650706</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -4571,40 +4563,40 @@
         <v>9.4600000000000004E-2</v>
       </c>
       <c r="E17" s="4">
+        <v>8.3398587999999996E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>9.6600000000000005E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>9.2200000000000004E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>8.72E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>7.9409458000000002E-2</v>
+      </c>
+      <c r="N17" s="4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>7.9200000000000007E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>7.9399999999999998E-2</v>
-      </c>
-      <c r="O17" s="4">
-        <v>8.3398587999999996E-2</v>
-      </c>
-      <c r="P17" s="4">
-        <v>7.9409458000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -4621,40 +4613,40 @@
         <v>7.7299999999999994E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>0.101041543</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.15790000000000001</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.7600000000000002E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>7.9399999999999998E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.7899999999999997E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.3131315000000002E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1142</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>8.4500000000000006E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.101041543</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.3131315000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -4671,40 +4663,40 @@
         <v>8.48E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>8.8742566999999994E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.16259999999999999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>3.9E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.20380000000000001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>4.3799999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>4.24E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>3.8137940000000002E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.24E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>8.8742566999999994E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>3.8137940000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -4721,40 +4713,40 @@
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>7.2450687E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1103</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>7.0699999999999999E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.12559999999999999</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>6.0400000000000002E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>5.9400000000000001E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>6.0677018999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>6.13E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>7.2450687E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>6.0677018999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -4771,44 +4763,44 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>7.9536687999999994E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.1211</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.6351366999999999E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>8.09E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="O21" s="4">
-        <v>7.9536687999999994E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5.6351366999999999E-2</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4819,13 +4811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7904E6-97A6-0F41-AAE2-E4EAEE969584}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -4842,40 +4832,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -4892,40 +4882,40 @@
         <v>9.4799999999999995E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>0.10480239500000001</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.1351</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.9399999999999993E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.1048</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1368</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>9.0399999999999994E-2</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.6482087999999999E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.10630000000000001</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>9.0399999999999994E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.10480239500000001</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.6482087999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -4942,40 +4932,40 @@
         <v>0.25719999999999998</v>
       </c>
       <c r="E3" s="4">
+        <v>0.25763996500000003</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.30020000000000002</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.26740000000000003</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.25480000000000003</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.30020000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.2581</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.24959999999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.25409999999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.26018738499999999</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.30759999999999998</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.24629999999999999</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25790000000000002</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.25763996500000003</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.26018738499999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -4992,40 +4982,40 @@
         <v>0.1129</v>
       </c>
       <c r="E4" s="4">
+        <v>6.3493108000000006E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.2336</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>6.5299999999999997E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.14149999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.24940000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>5.6300000000000003E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>5.8364742999999997E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.1593</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>5.8900000000000001E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>6.3493108000000006E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>5.8364742999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -5042,40 +5032,40 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="E5" s="4">
+        <v>0.18342551500000001</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.19989999999999999</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1678</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.18310000000000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.2049</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.17849999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.1704</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.1711</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.17033239999999999</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1817</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.1764</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.17960000000000001</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.18342551500000001</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.17033239999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -5092,40 +5082,40 @@
         <v>7.6799999999999993E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>0.109895437</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.1827</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.1143</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.2036</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.0374745999999998E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.1144</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.109895437</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.0374745999999998E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -5142,40 +5132,40 @@
         <v>0.13730000000000001</v>
       </c>
       <c r="E7" s="4">
+        <v>0.13207776500000001</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.16120000000000001</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.12770000000000001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.13850000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.16120000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1192</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1178</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.1183</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.11587048899999999</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.1467</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.1255</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1265</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.13207776500000001</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.11587048899999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -5192,40 +5182,40 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>5.0263381000000003E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.53E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.5136806000000002E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>5.0200000000000002E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.4900000000000002E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5.0263381000000003E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.5136806000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -5242,40 +5232,40 @@
         <v>6.25E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>6.6490013000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>0.06</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7.3700000000000002E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>6.13E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.9499999999999997E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>6.13E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.9426723000000001E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>6.1100000000000002E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>6.6490013000000001E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.9426723000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -5292,40 +5282,40 @@
         <v>8.72E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>0.117511255</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.18329999999999999</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.12590000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.19950000000000001</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>7.8399999999999997E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.1094090999999998E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.12540000000000001</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.7799999999999994E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.117511255</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.1094090999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -5342,40 +5332,40 @@
         <v>9.9599999999999994E-2</v>
       </c>
       <c r="E11" s="4">
+        <v>0.10451150200000001</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.11360000000000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>9.9400000000000002E-2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.1067</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.1163</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.1023</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.74E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.1004</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.7443283000000006E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.10730000000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>0.1004</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>0.1021</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.10451150200000001</v>
-      </c>
-      <c r="P11" s="4">
-        <v>9.7443283000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -5392,40 +5382,40 @@
         <v>0.13519999999999999</v>
       </c>
       <c r="E12" s="4">
+        <v>7.5650464000000001E-2</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.26960000000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>9.2700000000000005E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.19339999999999999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.26960000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>7.1099999999999997E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>8.4699999999999998E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>5.979338E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.2021</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>5.8200000000000002E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>5.8500000000000003E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>7.5650464000000001E-2</v>
-      </c>
-      <c r="P12" s="4">
-        <v>5.979338E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -5442,40 +5432,40 @@
         <v>6.83E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>8.7494685000000003E-2</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.1797</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.10920000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.2014</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.4600000000000003E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.4280931999999997E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.111</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.45E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>8.7494685000000003E-2</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.4280931999999997E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -5492,40 +5482,40 @@
         <v>0.10539999999999999</v>
       </c>
       <c r="E14" s="4">
+        <v>0.135845352</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.19900000000000001</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.1394</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.21890000000000001</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>8.8900000000000007E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>9.1899999999999996E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>8.7037988999999996E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.13900000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.7900000000000006E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>8.8800000000000004E-2</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.135845352</v>
-      </c>
-      <c r="P14" s="4">
-        <v>8.7037988999999996E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -5542,40 +5532,40 @@
         <v>9.3200000000000005E-2</v>
       </c>
       <c r="E15" s="4">
+        <v>9.9174309000000002E-2</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.1807</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.1032</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1993</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>5.1900000000000002E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>5.0343758000000002E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.1036</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>5.0099999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>9.9174309000000002E-2</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5.0343758000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -5592,40 +5582,40 @@
         <v>0.17549999999999999</v>
       </c>
       <c r="E16" s="4">
+        <v>0.18710600799999999</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.2427</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.14549999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.1918</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.2427</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.16220000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1575</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.16109999999999999</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.15615659300000001</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.1946</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.18240000000000001</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.1764</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.18710600799999999</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.15615659300000001</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -5642,40 +5632,40 @@
         <v>0.10059999999999999</v>
       </c>
       <c r="E17" s="4">
+        <v>8.6126217000000005E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>9.5200000000000007E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>8.4400000000000003E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>8.2593951999999998E-2</v>
+      </c>
+      <c r="N17" s="4">
         <v>9.7900000000000001E-2</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="O17" s="4">
-        <v>8.6126217000000005E-2</v>
-      </c>
-      <c r="P17" s="4">
-        <v>8.2593951999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -5692,40 +5682,40 @@
         <v>7.8799999999999995E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>0.10304946700000001</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.15579999999999999</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>7.3499999999999996E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.1066</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.1633</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.9299999999999995E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.4095901000000006E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1123</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>8.8200000000000001E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>8.6900000000000005E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.10304946700000001</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.4095901000000006E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -5742,40 +5732,40 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>9.5230088000000004E-2</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.17879999999999999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.10100000000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.1951</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>5.57E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>4.3520443999999998E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.11119999999999999</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.4200000000000003E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>9.5230088000000004E-2</v>
-      </c>
-      <c r="P19" s="4">
-        <v>4.3520443999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -5792,40 +5782,40 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>8.3989162000000006E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1226</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1381</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>5.67E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.7099999999999998E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>5.8799999999999998E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.6194134999999999E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="O20" s="4">
-        <v>8.3989162000000006E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.6194134999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -5842,40 +5832,40 @@
         <v>7.6399999999999996E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>9.0422172999999995E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.12520000000000001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>6.1899999999999997E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.12939999999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>5.8736952000000002E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>9.0300000000000005E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>6.5299999999999997E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>9.0422172999999995E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>5.8736952000000002E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5887,13 +5877,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36056FE-6067-5948-901D-DEEABB498895}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="15.83203125" customWidth="1"/>
+    <col min="1" max="16" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -5910,40 +5898,40 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5960,40 +5948,40 @@
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="E2" s="4">
+        <v>0.11143641999999999</v>
+      </c>
+      <c r="F2" s="4">
         <v>0.14219999999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>8.8300000000000003E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.1108</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>0.1368</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>0.09</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
+        <v>8.7027574999999996E-2</v>
+      </c>
+      <c r="N2" s="4">
         <v>0.11219999999999999</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>8.7599999999999997E-2</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>8.9099999999999999E-2</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.11143641999999999</v>
-      </c>
-      <c r="P2" s="4">
-        <v>8.7027574999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -6010,40 +5998,40 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="E3" s="4">
+        <v>0.26415054599999999</v>
+      </c>
+      <c r="F3" s="4">
         <v>0.34339999999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.27150000000000002</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.26140000000000002</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>0.30020000000000002</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>0.25900000000000001</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>0.2467</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.2482</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
+        <v>0.25718713500000001</v>
+      </c>
+      <c r="N3" s="4">
         <v>0.35170000000000001</v>
       </c>
-      <c r="M3" s="4">
+      <c r="O3" s="4">
         <v>0.25590000000000002</v>
       </c>
-      <c r="N3" s="4">
+      <c r="P3" s="4">
         <v>0.25829999999999997</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.26415054599999999</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.25718713500000001</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -6060,40 +6048,40 @@
         <v>0.11899999999999999</v>
       </c>
       <c r="E4" s="4">
+        <v>7.1874280999999998E-2</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.25009999999999999</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.1888</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="4">
         <v>0.24940000000000001</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>9.0200000000000002E-2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
+        <v>6.3851530000000004E-2</v>
+      </c>
+      <c r="N4" s="4">
         <v>0.19139999999999999</v>
       </c>
-      <c r="M4" s="4">
+      <c r="O4" s="4">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="N4" s="4">
+      <c r="P4" s="4">
         <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>7.1874280999999998E-2</v>
-      </c>
-      <c r="P4" s="4">
-        <v>6.3851530000000004E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -6110,40 +6098,40 @@
         <v>0.18010000000000001</v>
       </c>
       <c r="E5" s="4">
+        <v>0.18521707100000001</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.20430000000000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>0.1636</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>0.1865</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>0.2112</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>0.17899999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="4">
         <v>0.16739999999999999</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>0.16980000000000001</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
+        <v>0.16900279100000001</v>
+      </c>
+      <c r="N5" s="4">
         <v>0.1862</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>0.17649999999999999</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>0.17879999999999999</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.18521707100000001</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.16900279100000001</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -6160,40 +6148,40 @@
         <v>8.8099999999999998E-2</v>
       </c>
       <c r="E6" s="4">
+        <v>0.126616587</v>
+      </c>
+      <c r="F6" s="4">
         <v>0.19550000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>0.1328</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>0.21659999999999999</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>5.2900000000000003E-2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
         <v>5.2699999999999997E-2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
+        <v>5.2104057000000002E-2</v>
+      </c>
+      <c r="N6" s="4">
         <v>0.13320000000000001</v>
       </c>
-      <c r="M6" s="4">
+      <c r="O6" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="P6" s="4">
         <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0.126616587</v>
-      </c>
-      <c r="P6" s="4">
-        <v>5.2104057000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -6210,40 +6198,40 @@
         <v>0.1318</v>
       </c>
       <c r="E7" s="4">
+        <v>0.126399185</v>
+      </c>
+      <c r="F7" s="4">
         <v>0.15179999999999999</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>0.125</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>0.13020000000000001</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="4">
         <v>0.16120000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>0.1211</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>0.1149</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>0.11840000000000001</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
+        <v>0.11530768199999999</v>
+      </c>
+      <c r="N7" s="4">
         <v>0.13800000000000001</v>
       </c>
-      <c r="M7" s="4">
+      <c r="O7" s="4">
         <v>0.13020000000000001</v>
       </c>
-      <c r="N7" s="4">
+      <c r="P7" s="4">
         <v>0.1232</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0.126399185</v>
-      </c>
-      <c r="P7" s="4">
-        <v>0.11530768199999999</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -6260,40 +6248,40 @@
         <v>4.87E-2</v>
       </c>
       <c r="E8" s="4">
+        <v>5.1366412E-2</v>
+      </c>
+      <c r="F8" s="4">
         <v>5.7500000000000002E-2</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="G8" s="4">
+      <c r="H8" s="4">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="H8" s="4">
+      <c r="I8" s="4">
         <v>5.62E-2</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
+        <v>4.5231668000000003E-2</v>
+      </c>
+      <c r="N8" s="4">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="M8" s="4">
+      <c r="O8" s="4">
         <v>4.5600000000000002E-2</v>
       </c>
-      <c r="N8" s="4">
+      <c r="P8" s="4">
         <v>4.58E-2</v>
-      </c>
-      <c r="O8" s="4">
-        <v>5.1366412E-2</v>
-      </c>
-      <c r="P8" s="4">
-        <v>4.5231668000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
@@ -6310,40 +6298,40 @@
         <v>6.2700000000000006E-2</v>
       </c>
       <c r="E9" s="4">
+        <v>6.6855784000000001E-2</v>
+      </c>
+      <c r="F9" s="4">
         <v>7.2400000000000006E-2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>5.9299999999999999E-2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>6.0900000000000003E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
+        <v>5.9067335999999998E-2</v>
+      </c>
+      <c r="N9" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="M9" s="4">
+      <c r="O9" s="4">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="N9" s="4">
+      <c r="P9" s="4">
         <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>6.6855784000000001E-2</v>
-      </c>
-      <c r="P9" s="4">
-        <v>5.9067335999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -6360,40 +6348,40 @@
         <v>9.69E-2</v>
       </c>
       <c r="E10" s="4">
+        <v>0.129624395</v>
+      </c>
+      <c r="F10" s="4">
         <v>0.19600000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="4">
         <v>0.13880000000000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="4">
         <v>0.216</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>8.0699999999999994E-2</v>
       </c>
-      <c r="J10" s="4">
+      <c r="K10" s="4">
         <v>7.3899999999999993E-2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="L10" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
+        <v>7.2597467999999998E-2</v>
+      </c>
+      <c r="N10" s="4">
         <v>0.13869999999999999</v>
       </c>
-      <c r="M10" s="4">
+      <c r="O10" s="4">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N10" s="4">
+      <c r="P10" s="4">
         <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0.129624395</v>
-      </c>
-      <c r="P10" s="4">
-        <v>7.2597467999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -6410,40 +6398,40 @@
         <v>0.10150000000000001</v>
       </c>
       <c r="E11" s="4">
+        <v>0.104256241</v>
+      </c>
+      <c r="F11" s="4">
         <v>0.111</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>0.10050000000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>0.10780000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>0.11260000000000001</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.1027</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <v>0.1017</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
+        <v>9.8707680000000006E-2</v>
+      </c>
+      <c r="N11" s="4">
         <v>0.10730000000000001</v>
       </c>
-      <c r="M11" s="4">
+      <c r="O11" s="4">
         <v>0.1009</v>
       </c>
-      <c r="N11" s="4">
+      <c r="P11" s="4">
         <v>0.1021</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0.104256241</v>
-      </c>
-      <c r="P11" s="4">
-        <v>9.8707680000000006E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -6460,40 +6448,40 @@
         <v>0.16020000000000001</v>
       </c>
       <c r="E12" s="4">
+        <v>0.10010376</v>
+      </c>
+      <c r="F12" s="4">
         <v>0.2802</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>9.2899999999999996E-2</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>0.218</v>
       </c>
-      <c r="H12" s="4">
+      <c r="I12" s="4">
         <v>0.26960000000000001</v>
       </c>
-      <c r="I12" s="4">
+      <c r="J12" s="4">
         <v>0.1019</v>
       </c>
-      <c r="J12" s="4">
+      <c r="K12" s="4">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>0.1046</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
+        <v>6.8162132E-2</v>
+      </c>
+      <c r="N12" s="4">
         <v>0.23449999999999999</v>
       </c>
-      <c r="M12" s="4">
+      <c r="O12" s="4">
         <v>6.2799999999999995E-2</v>
       </c>
-      <c r="N12" s="4">
+      <c r="P12" s="4">
         <v>7.7899999999999997E-2</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0.10010376</v>
-      </c>
-      <c r="P12" s="4">
-        <v>6.8162132E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -6510,40 +6498,40 @@
         <v>7.9299999999999995E-2</v>
       </c>
       <c r="E13" s="4">
+        <v>0.10631575</v>
+      </c>
+      <c r="F13" s="4">
         <v>0.19639999999999999</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>6.2300000000000001E-2</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="4">
         <v>0.12870000000000001</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>0.2014</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="4">
         <v>5.7200000000000001E-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="4">
         <v>5.7799999999999997E-2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
+        <v>5.4662637E-2</v>
+      </c>
+      <c r="N13" s="4">
         <v>0.12970000000000001</v>
       </c>
-      <c r="M13" s="4">
+      <c r="O13" s="4">
         <v>5.5E-2</v>
       </c>
-      <c r="N13" s="4">
+      <c r="P13" s="4">
         <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0.10631575</v>
-      </c>
-      <c r="P13" s="4">
-        <v>5.4662637E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -6560,40 +6548,40 @@
         <v>0.1144</v>
       </c>
       <c r="E14" s="4">
+        <v>0.15090499800000001</v>
+      </c>
+      <c r="F14" s="4">
         <v>0.2132</v>
       </c>
-      <c r="F14" s="4">
+      <c r="G14" s="4">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="4">
         <v>0.15570000000000001</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.2306</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>9.1399999999999995E-2</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="L14" s="4">
         <v>9.4799999999999995E-2</v>
       </c>
-      <c r="L14" s="4">
+      <c r="M14" s="4">
+        <v>8.8044225000000004E-2</v>
+      </c>
+      <c r="N14" s="4">
         <v>0.15490000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="O14" s="4">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="N14" s="4">
+      <c r="P14" s="4">
         <v>0.09</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0.15090499800000001</v>
-      </c>
-      <c r="P14" s="4">
-        <v>8.8044225000000004E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -6610,40 +6598,40 @@
         <v>0.1157</v>
       </c>
       <c r="E15" s="4">
+        <v>0.108895146</v>
+      </c>
+      <c r="F15" s="4">
         <v>0.17119999999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="G15" s="4">
         <v>6.0699999999999997E-2</v>
       </c>
-      <c r="G15" s="4">
+      <c r="H15" s="4">
         <v>0.10730000000000001</v>
       </c>
-      <c r="H15" s="4">
+      <c r="I15" s="4">
         <v>0.1993</v>
       </c>
-      <c r="I15" s="4">
+      <c r="J15" s="4">
         <v>5.96E-2</v>
       </c>
-      <c r="J15" s="4">
+      <c r="K15" s="4">
         <v>5.1200000000000002E-2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="L15" s="4">
         <v>5.96E-2</v>
       </c>
-      <c r="L15" s="4">
+      <c r="M15" s="4">
+        <v>5.0284389999999998E-2</v>
+      </c>
+      <c r="N15" s="4">
         <v>0.11169999999999999</v>
       </c>
-      <c r="M15" s="4">
+      <c r="O15" s="4">
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="N15" s="4">
+      <c r="P15" s="4">
         <v>5.4100000000000002E-2</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0.108895146</v>
-      </c>
-      <c r="P15" s="4">
-        <v>5.0284389999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -6660,40 +6648,40 @@
         <v>0.1862</v>
       </c>
       <c r="E16" s="4">
+        <v>0.19893372600000001</v>
+      </c>
+      <c r="F16" s="4">
         <v>0.25650000000000001</v>
       </c>
-      <c r="F16" s="4">
+      <c r="G16" s="4">
         <v>0.15429999999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="H16" s="4">
         <v>0.2077</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.25650000000000001</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.1711</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.1613</v>
       </c>
-      <c r="K16" s="4">
+      <c r="L16" s="4">
         <v>0.1676</v>
       </c>
-      <c r="L16" s="4">
+      <c r="M16" s="4">
+        <v>0.15534260899999999</v>
+      </c>
+      <c r="N16" s="4">
         <v>0.20880000000000001</v>
       </c>
-      <c r="M16" s="4">
+      <c r="O16" s="4">
         <v>0.1996</v>
       </c>
-      <c r="N16" s="4">
+      <c r="P16" s="4">
         <v>0.17849999999999999</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0.19893372600000001</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0.15534260899999999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
@@ -6710,40 +6698,40 @@
         <v>0.1056</v>
       </c>
       <c r="E17" s="4">
+        <v>9.0219563000000003E-2</v>
+      </c>
+      <c r="F17" s="4">
         <v>0.1067</v>
       </c>
-      <c r="F17" s="4">
+      <c r="G17" s="4">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="G17" s="4">
+      <c r="H17" s="4">
         <v>0.1027</v>
       </c>
-      <c r="H17" s="4">
+      <c r="I17" s="4">
         <v>0.108</v>
       </c>
-      <c r="I17" s="4">
+      <c r="J17" s="4">
         <v>8.6800000000000002E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="K17" s="4">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="K17" s="4">
+      <c r="L17" s="4">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="L17" s="4">
+      <c r="M17" s="4">
+        <v>8.6948288999999998E-2</v>
+      </c>
+      <c r="N17" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="M17" s="4">
+      <c r="O17" s="4">
         <v>8.0799999999999997E-2</v>
       </c>
-      <c r="N17" s="4">
+      <c r="P17" s="4">
         <v>8.4199999999999997E-2</v>
-      </c>
-      <c r="O17" s="4">
-        <v>9.0219563000000003E-2</v>
-      </c>
-      <c r="P17" s="4">
-        <v>8.6948288999999998E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
@@ -6760,40 +6748,40 @@
         <v>8.9200000000000002E-2</v>
       </c>
       <c r="E18" s="4">
+        <v>0.112938999</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.15859999999999999</v>
       </c>
-      <c r="F18" s="4">
+      <c r="G18" s="4">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="G18" s="4">
+      <c r="H18" s="4">
         <v>0.11070000000000001</v>
       </c>
-      <c r="H18" s="4">
+      <c r="I18" s="4">
         <v>0.1633</v>
       </c>
-      <c r="I18" s="4">
+      <c r="J18" s="4">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="J18" s="4">
+      <c r="K18" s="4">
         <v>7.9500000000000001E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="L18" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="L18" s="4">
+      <c r="M18" s="4">
+        <v>7.6309369000000002E-2</v>
+      </c>
+      <c r="N18" s="4">
         <v>0.1186</v>
       </c>
-      <c r="M18" s="4">
+      <c r="O18" s="4">
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="N18" s="4">
+      <c r="P18" s="4">
         <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0.112938999</v>
-      </c>
-      <c r="P18" s="4">
-        <v>7.6309369000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
@@ -6810,40 +6798,40 @@
         <v>9.06E-2</v>
       </c>
       <c r="E19" s="4">
+        <v>0.109993118</v>
+      </c>
+      <c r="F19" s="4">
         <v>0.17469999999999999</v>
       </c>
-      <c r="F19" s="4">
+      <c r="G19" s="4">
         <v>4.8899999999999999E-2</v>
       </c>
-      <c r="G19" s="4">
+      <c r="H19" s="4">
         <v>0.11650000000000001</v>
       </c>
-      <c r="H19" s="4">
+      <c r="I19" s="4">
         <v>0.1951</v>
       </c>
-      <c r="I19" s="4">
+      <c r="J19" s="4">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="K19" s="4">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="L19" s="4">
         <v>5.3100000000000001E-2</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="4">
+        <v>4.2668214000000003E-2</v>
+      </c>
+      <c r="N19" s="4">
         <v>0.13189999999999999</v>
       </c>
-      <c r="M19" s="4">
+      <c r="O19" s="4">
         <v>4.87E-2</v>
       </c>
-      <c r="N19" s="4">
+      <c r="P19" s="4">
         <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.109993118</v>
-      </c>
-      <c r="P19" s="4">
-        <v>4.2668214000000003E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
@@ -6860,40 +6848,40 @@
         <v>8.2900000000000001E-2</v>
       </c>
       <c r="E20" s="4">
+        <v>9.0381191999999999E-2</v>
+      </c>
+      <c r="F20" s="4">
         <v>0.1201</v>
       </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="G20" s="4">
+      <c r="H20" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>0.1381</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J20" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="J20" s="4">
+      <c r="K20" s="4">
         <v>5.74E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="L20" s="4">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="L20" s="4">
+      <c r="M20" s="4">
+        <v>5.7484597999999998E-2</v>
+      </c>
+      <c r="N20" s="4">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="M20" s="4">
+      <c r="O20" s="4">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="N20" s="4">
+      <c r="P20" s="4">
         <v>0.06</v>
-      </c>
-      <c r="O20" s="4">
-        <v>9.0381191999999999E-2</v>
-      </c>
-      <c r="P20" s="4">
-        <v>5.7484597999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
@@ -6910,40 +6898,40 @@
         <v>8.6900000000000005E-2</v>
       </c>
       <c r="E21" s="4">
+        <v>9.7062323000000006E-2</v>
+      </c>
+      <c r="F21" s="4">
         <v>0.13669999999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="G21" s="4">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="G21" s="4">
+      <c r="H21" s="4">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="H21" s="4">
+      <c r="I21" s="4">
         <v>0.12939999999999999</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J21" s="4">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="J21" s="4">
+      <c r="K21" s="4">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="K21" s="4">
+      <c r="L21" s="4">
         <v>6.3200000000000006E-2</v>
       </c>
-      <c r="L21" s="4">
+      <c r="M21" s="4">
+        <v>6.1407187000000002E-2</v>
+      </c>
+      <c r="N21" s="4">
         <v>9.7600000000000006E-2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="O21" s="4">
         <v>5.91E-2</v>
       </c>
-      <c r="N21" s="4">
+      <c r="P21" s="4">
         <v>6.59E-2</v>
-      </c>
-      <c r="O21" s="4">
-        <v>9.7062323000000006E-2</v>
-      </c>
-      <c r="P21" s="4">
-        <v>6.1407187000000002E-2</v>
       </c>
     </row>
   </sheetData>
